--- a/medicine/Psychotrope/Terras_do_Sado_(VR)/Terras_do_Sado_(VR).xlsx
+++ b/medicine/Psychotrope/Terras_do_Sado_(VR)/Terras_do_Sado_(VR).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Terras do Sado sont des vins portugais de la péninsule de Setúbal. Ils font partie des vinhos regionais (VR).  
 </t>
@@ -511,7 +523,9 @@
           <t>Géographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Avec le Muscat de Setúbal au nord-ouest et l'Océan Atlantique à l'ouest, ce terroir viticole est presque entièrement entouré par celui de l'Alentejo.  
 </t>
@@ -542,7 +556,9 @@
           <t>Encépagement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les vins rouges produits doivent contenir un mélange de cépages d'au moins 50 % de Cabernet Sauvignon, Merlot, Moscatel roxo, Castelão, Tinta amarela, Touriga nacional et Tinta roriz. Les 50 % restants peuvent inclure Alfrocheiro preto, Alicante Bouschet, Bastardo, Carignan, Grand noir, Monvedro, Moreto et Tinta miuda. Les vins blancs doivent contenir au moins 50 % d'Arinto, Chardonnay, Fernão Pires, Malvasia fina, Muscat d'Alexandrie et Roupeiro. Les 50 % restants peuvent inclure Antao Vaz, Esgana cao, Sauvignon blanc, Rabo de Ovelha, Trincadeira das Pratas et Ugni blanc.
 </t>
